--- a/3 TP Analysis/04 - Tables/Substrate_results.xlsx
+++ b/3 TP Analysis/04 - Tables/Substrate_results.xlsx
@@ -1,67 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/04 - Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5288BE-7CBE-5F46-9875-049080D312B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanobacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroalgae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand and sediment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Hard coral</t>
+  </si>
+  <si>
+    <t>Hard substrate</t>
+  </si>
+  <si>
+    <t>Macroalgae</t>
+  </si>
+  <si>
+    <t>Sand and sediment</t>
+  </si>
+  <si>
+    <t>Turf</t>
+  </si>
+  <si>
+    <t>Substrate type</t>
+  </si>
+  <si>
+    <t>No. of ascidian units</t>
+  </si>
+  <si>
+    <t>Ascidians growing on substrate (%)</t>
+  </si>
+  <si>
+    <t>Slaughter Bay</t>
+  </si>
+  <si>
+    <t>Emily Bay</t>
+  </si>
+  <si>
+    <t>Cemetery Bay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -94,9 +109,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,304 +402,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.2258064516129</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>31</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19.3548387096774</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.2258064516129</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.45161290322581</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61.2903225806452</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.45161290322581</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.6666666666667</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>36</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.55555555555556</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.1111111111111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" t="n">
-        <v>36</v>
-      </c>
-      <c r="E11" t="n">
-        <v>44.4444444444444</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>36</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.2222222222222</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>46</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.34782608695652</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="D15">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
-        <v>46</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.34782608695652</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.52173913043478</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>46</v>
-      </c>
-      <c r="E16" t="n">
-        <v>71.7391304347826</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>46</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.0434782608696</v>
+      <c r="D17">
+        <v>6.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/3 TP Analysis/04 - Tables/Substrate_results.xlsx
+++ b/3 TP Analysis/04 - Tables/Substrate_results.xlsx
@@ -1,82 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/04 - Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5288BE-7CBE-5F46-9875-049080D312B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Cyanobacteria</t>
-  </si>
-  <si>
-    <t>Hard coral</t>
-  </si>
-  <si>
-    <t>Hard substrate</t>
-  </si>
-  <si>
-    <t>Macroalgae</t>
-  </si>
-  <si>
-    <t>Sand and sediment</t>
-  </si>
-  <si>
-    <t>Turf</t>
-  </si>
-  <si>
-    <t>Substrate type</t>
-  </si>
-  <si>
-    <t>No. of ascidian units</t>
-  </si>
-  <si>
-    <t>Ascidians growing on substrate (%)</t>
-  </si>
-  <si>
-    <t>Slaughter Bay</t>
-  </si>
-  <si>
-    <t>Emily Bay</t>
-  </si>
-  <si>
-    <t>Cemetery Bay</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroalgae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand and sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,18 +94,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,221 +378,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.2258064516129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.3548387096774</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.2258064516129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.45161290322581</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E6" t="n">
+        <v>61.2903225806452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.45161290322581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.55555555555556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>71.739999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>16.670000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
+      <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.1111111111111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>44.4444444444444</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>36</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.2222222222222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="D13" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.34782608695652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.34782608695652</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.52173913043478</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.7391304347826</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>19.350000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>61.29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>6.45</v>
+      <c r="D17" t="n">
+        <v>46</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.0434782608696</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>